--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\portefolio_next\portefolio\public\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F9F96F-4455-4D58-BB39-96C46AF16333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88882D1-374E-4218-A5B1-32EA0D910179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2023</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Développement sur la plateforme ServiceNow (interface de ticketing) gestion du matériel consernant le renouvellement </t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://portefolio-bts.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -704,15 +704,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,30 +768,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,56 +1094,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1151,26 +1151,26 @@
         <v>15</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1193,8 +1193,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1250,16 +1250,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1298,22 +1298,22 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1353,23 +1353,23 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10"/>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17"/>
       <c r="D11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
@@ -1461,19 +1461,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12"/>
@@ -1514,24 +1514,24 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1571,14 +1571,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="17"/>
@@ -1803,16 +1803,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1851,21 +1851,21 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20"/>
@@ -1906,21 +1906,21 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21"/>
@@ -2184,16 +2184,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2232,23 +2232,23 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28"/>
@@ -2648,11 +2648,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2660,6 +2655,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5320462E-963B-4B83-A796-8AF5D3F356CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2824D-392F-4CEF-81F5-1056AA097F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -704,15 +704,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,30 +768,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,56 +1094,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1155,22 +1155,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1193,8 +1193,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1250,16 +1250,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1626,8 +1626,12 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="18"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1670,12 +1674,22 @@
         <v>36</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1803,16 +1817,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2184,16 +2198,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2288,6 +2302,7 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -2332,6 +2347,7 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -2648,11 +2664,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2660,6 +2671,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2824D-392F-4CEF-81F5-1056AA097F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104B932-72A9-4D2B-9C59-F617DEA02FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,16 +107,10 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>NOM et prénom : BRIOT Arthur</t>
   </si>
   <si>
     <t>☑ SLAM</t>
-  </si>
-  <si>
-    <t>Automatisation et optimisation d'un formulaire avec les tâches planifié sur des serveurs</t>
   </si>
   <si>
     <t>Automatisation de mail via python</t>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://portefolio-bts.vercel.app/</t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>Automatisation et optimisation d'un formulaire avec les tâches planifiées sur des serveurs</t>
   </si>
 </sst>
 </file>
@@ -704,9 +704,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -729,45 +768,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,56 +1094,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1151,26 +1151,26 @@
         <v>15</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1193,8 +1193,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1250,16 +1250,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1298,22 +1298,22 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1353,23 +1353,23 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10"/>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17"/>
       <c r="D11" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
@@ -1461,19 +1461,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12"/>
@@ -1514,24 +1514,24 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1571,14 +1571,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -1620,17 +1620,17 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15"/>
@@ -1671,24 +1671,24 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1817,16 +1817,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1865,21 +1865,21 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20"/>
@@ -1920,21 +1920,21 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21"/>
@@ -2198,16 +2198,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2246,23 +2246,23 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28"/>
@@ -2664,6 +2664,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2671,11 +2676,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104B932-72A9-4D2B-9C59-F617DEA02FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D205292A-490E-4556-8C81-69B7200F6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>File rouge : Gestionnaire d'inventaire en NextJs avec une base de données Neon.tech et utilisation d'API</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement sur la plateforme ServiceNow (interface de ticketing) gestion du matériel consernant le renouvellement </t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : https://portefolio-bts.vercel.app/</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Automatisation et optimisation d'un formulaire avec les tâches planifiées sur des serveurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement sur la plateforme ServiceNow (interface de ticketing) gestion du matériel concernant le renouvellement </t>
   </si>
 </sst>
 </file>
@@ -704,15 +704,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,30 +768,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,56 +1094,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1155,22 +1155,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1193,8 +1193,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1250,16 +1250,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1817,16 +1817,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="22" t="s">
@@ -2198,16 +2198,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="22" t="s">
@@ -2664,11 +2664,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2676,6 +2671,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D205292A-490E-4556-8C81-69B7200F6CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB97AB-8974-4EBB-BE70-DB00ADD259F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t xml:space="preserve">Développement sur la plateforme ServiceNow (interface de ticketing) gestion du matériel concernant le renouvellement </t>
+  </si>
+  <si>
+    <t>13/05/2024 - 14/06/2024</t>
+  </si>
+  <si>
+    <t>18/11/2024-20/12/2024</t>
+  </si>
+  <si>
+    <t>20/03/2025 - 10/04/2025</t>
+  </si>
+  <si>
+    <t>14/01/2025 - 3/02/2025</t>
+  </si>
+  <si>
+    <t>10/03/2025 - 18/03/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025 - 25/11/2025</t>
+  </si>
+  <si>
+    <t>16/09/2024 - 15/10/2024</t>
+  </si>
+  <si>
+    <t>8/04/2024 - 22/04/2024</t>
   </si>
 </sst>
 </file>
@@ -636,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,9 +728,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -731,44 +794,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,70 +1107,70 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.44140625" customWidth="1"/>
     <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1155,22 +1182,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1193,8 +1220,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1250,16 +1277,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1300,7 +1327,9 @@
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="22" t="s">
         <v>24</v>
@@ -1355,7 +1384,9 @@
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
@@ -1412,7 +1443,9 @@
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="22" t="s">
         <v>24</v>
@@ -1463,7 +1496,9 @@
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1551,9 @@
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1610,9 @@
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="45">
+        <v>45617</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1622,7 +1661,9 @@
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="45">
+        <v>45734</v>
+      </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1673,7 +1714,9 @@
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
@@ -1817,16 +1860,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1863,11 +1906,13 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="22" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1967,9 @@
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="22" t="s">
         <v>24</v>
       </c>
@@ -2198,16 +2245,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2248,7 +2295,9 @@
       <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="22" t="s">
         <v>24</v>
       </c>
@@ -2664,6 +2713,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2671,11 +2725,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents/Arthur_Briot_e5.xlsx
+++ b/public/documents/Arthur_Briot_e5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briot\Documents\BTS SIO 2\Portefolio-Arthur-Briot\Portefolio-BTS\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB97AB-8974-4EBB-BE70-DB00ADD259F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43E3E06-199A-4D03-A59B-8C6DC62DF2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>13/05/2024 - 14/06/2024</t>
   </si>
   <si>
-    <t>18/11/2024-20/12/2024</t>
-  </si>
-  <si>
     <t>20/03/2025 - 10/04/2025</t>
   </si>
   <si>
@@ -177,13 +174,16 @@
     <t>10/03/2025 - 18/03/2025</t>
   </si>
   <si>
-    <t>14/10/2025 - 25/11/2025</t>
-  </si>
-  <si>
     <t>16/09/2024 - 15/10/2024</t>
   </si>
   <si>
     <t>8/04/2024 - 22/04/2024</t>
+  </si>
+  <si>
+    <t>14/10/2024 - 25/11/2024</t>
+  </si>
+  <si>
+    <t>18/11/2024 - 20/12/2024</t>
   </si>
 </sst>
 </file>
@@ -728,15 +728,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,33 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1121,56 +1121,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1182,22 +1182,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1220,8 +1220,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1277,16 +1277,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1328,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="22" t="s">
@@ -1385,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>24</v>
@@ -1444,7 +1444,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="22" t="s">
@@ -1497,7 +1497,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>24</v>
@@ -1552,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>24</v>
@@ -1610,7 +1610,7 @@
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="23">
         <v>45617</v>
       </c>
       <c r="C14" s="17"/>
@@ -1661,7 +1661,7 @@
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="23">
         <v>45734</v>
       </c>
       <c r="C15" s="17"/>
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>24</v>
@@ -1860,16 +1860,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2245,16 +2245,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2296,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>24</v>
@@ -2713,11 +2713,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2725,6 +2720,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
